--- a/biology/Botanique/Framiré/Framiré.xlsx
+++ b/biology/Botanique/Framiré/Framiré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Framir%C3%A9</t>
+          <t>Framiré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia ivorensis
 Le framiré, de son nom scientifique Terminalia ivorensis, est un arbre appartenant à la famille des combrétacées. Reconnaissable par ses branches s'organisant en couronne autour du jeune tronc, c'est un arbre très répandu en Afrique de l'Ouest, particulièrement en Côte d'Ivoire. Sa croissance est rapide et développe un tronc plus ou moins droit. Il est souvent utilisé pour les reboisements, comme on peut le constater en Côte d'Ivoire où les forêts classées clandestinement détruites sont recolonisées par des reboisements de cette espèce.
